--- a/COVID-19 Testing Sites.xlsx
+++ b/COVID-19 Testing Sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\Samples for Classes\10. Excel Solver Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BD0DDB-0D5C-45C8-899D-DBA5DEE9D7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A3639-F8EC-456F-902A-8FE2EDAAC413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,35 +23,35 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Model!$P$51:$P$55</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Model!$Q$38:$Q$39</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Model!$Q$54:$Q$55</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Model!$M$35:$M$39</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Model!$L$36:$L$40</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Model!$N$53:$O$56</definedName>
-    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Model!$P$35:$P$39</definedName>
-    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Model!$Q$38:$Q$39</definedName>
-    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Model!$C$21:$C$25</definedName>
-    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Model!$B$23:$B$24</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Model!$C$21:$C$25</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Model!$M$35:$M$39</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Model!$M$51:$M$55</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">Model!$N$37:$O$40</definedName>
+    <definedName name="solver_lhs16" localSheetId="0" hidden="1">Model!$N$37:$O$40</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">Model!$L$52:$L$56</definedName>
-    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Model!$M$35:$M$39</definedName>
-    <definedName name="solver_lhs19" localSheetId="0" hidden="1">Model!$M$51:$M$55</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Model!$Q$35</definedName>
-    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Model!$N$37:$O$40</definedName>
-    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Model!$N$37:$O$40</definedName>
-    <definedName name="solver_lhs22" localSheetId="0" hidden="1">Model!$M$35:$M$39</definedName>
-    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Model!$K$54:$K$55</definedName>
-    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Model!$K$42</definedName>
-    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Model!$K$38:$K$39</definedName>
+    <definedName name="solver_lhs18" localSheetId="0" hidden="1">Model!$P$35:$P$39</definedName>
+    <definedName name="solver_lhs19" localSheetId="0" hidden="1">Model!$L$36:$L$40</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Model!$Q$51</definedName>
+    <definedName name="solver_lhs20" localSheetId="0" hidden="1">Model!$P$35:$P$39</definedName>
+    <definedName name="solver_lhs21" localSheetId="0" hidden="1">Model!$N$53:$O$56</definedName>
+    <definedName name="solver_lhs22" localSheetId="0" hidden="1">Model!$D$20:$D$24</definedName>
+    <definedName name="solver_lhs23" localSheetId="0" hidden="1">Model!$B$23:$B$24</definedName>
+    <definedName name="solver_lhs24" localSheetId="0" hidden="1">Model!$H$20</definedName>
+    <definedName name="solver_lhs25" localSheetId="0" hidden="1">Model!$H$23:$H$24</definedName>
     <definedName name="solver_lhs26" localSheetId="0" hidden="1">Model!$K$38:$K$39</definedName>
-    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Model!$H$20</definedName>
+    <definedName name="solver_lhs27" localSheetId="0" hidden="1">Model!$K$38:$K$39</definedName>
     <definedName name="solver_lhs28" localSheetId="0" hidden="1">Model!$G$20:$G$24</definedName>
-    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Model!$H$23:$H$24</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Model!$Q$51</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Model!$Q$54:$Q$55</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Model!$E$22:$F$25</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Model!$D$20:$D$24</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Model!$L$36:$L$40</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Model!$P$35:$P$39</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Model!$Q$35</definedName>
+    <definedName name="solver_lhs29" localSheetId="0" hidden="1">Model!$K$42</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Model!$Q$35</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Model!$Q$38:$Q$39</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Model!$Q$38:$Q$39</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Model!$P$51:$P$55</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Model!$Q$35</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Model!$E$22:$F$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Model!$K$54:$K$55</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -65,63 +65,63 @@
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel14" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel15" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel16" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel18" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel19" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel18" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel19" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel20" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel21" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel21" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel22" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel23" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel24" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel23" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel24" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel25" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel26" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel27" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel28" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel29" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel29" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Model!$Z$38:$Z$39</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">Model!$U$36:$U$40</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Model!$Y$35:$Y$39</definedName>
-    <definedName name="solver_rhs14" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs15" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Model!$V$35:$V$39</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Model!$L$58</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">Model!$W$37:$X$40</definedName>
     <definedName name="solver_rhs16" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs18" localSheetId="0" hidden="1">Model!$V$35:$V$39</definedName>
-    <definedName name="solver_rhs19" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs20" localSheetId="0" hidden="1">Model!$W$37:$X$40</definedName>
-    <definedName name="solver_rhs21" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs18" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs19" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Model!$L$58</definedName>
+    <definedName name="solver_rhs20" localSheetId="0" hidden="1">Model!$Y$35:$Y$39</definedName>
+    <definedName name="solver_rhs21" localSheetId="0" hidden="1">Model!$L$58</definedName>
     <definedName name="solver_rhs22" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs23" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs24" localSheetId="0" hidden="1">Model!$M$42</definedName>
+    <definedName name="solver_rhs23" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs24" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs25" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs26" localSheetId="0" hidden="1">Model!$T$38:$T$39</definedName>
     <definedName name="solver_rhs27" localSheetId="0" hidden="1">"binary"</definedName>
     <definedName name="solver_rhs28" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs29" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Model!$L$58</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs29" localSheetId="0" hidden="1">Model!$M$42</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Model!$Z$38:$Z$39</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Model!$L$58</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Model!$Z$35</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">"binary"</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Model!$Z$35</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Model!$L$58</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -505,6 +505,23 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -515,7 +532,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Below are two maps: to the left, a map of a city with 28 neighborhoods and their respective populations; to the right, a map of the cost of establishing a test site in a particular neighborhood. Below are the assumptions for this problem:</a:t>
+            <a:t>Below are two maps: to the left, a map of a city with 28 neighborhoods and their respective populations; to the right, a map of the same 28 neighborhoods and the cost of establishing a test site in each neighborhood. Below are the assumptions for this problem:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -543,7 +560,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2) 60% of the population of a neighborhood will be tested if that neighborhood is adjacent (i.e., north, south, east, west, northeast, southeast, northwest or southwest) to another neighborhood that has an established test site</a:t>
+            <a:t>2) 60% of the population of a neighborhood will be tested if that neighborhood is adjacent (i.e., north, south, east, west, northeast, southeast, northwest or southwest) to a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>neighborhood with a test site</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -557,7 +598,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3) the city has a budget of $11,000 to establish test sites</a:t>
+            <a:t>3) The city has a budget of $11,000 to establish test sites</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -571,7 +612,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The goal of this project is to create a linear model to determine in which neighborhoods the city should establish test sites such that the maximum number of people are tested. Please note that blue-colored cells are data given by the city, yellow-colored cells are decision variables ("DVs") for Solver to adjust, and the orange-colored cell is the objective being maximized in the model (i.e., the total population tested). </a:t>
+            <a:t>The goal of this project is to create a linear model to determine in which neighborhoods the city should establish test sites such that the maximum number of people is tested. Please note that blue-colored cells are data given by the city, yellow-colored cells are decision variables ("DVs") for Solver to adjust, and the orange-colored cell is the objective being maximized in the model (i.e., the total population tested). </a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/COVID-19 Testing Sites.xlsx
+++ b/COVID-19 Testing Sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivia\Downloads\Samples for Classes\10. Excel Solver Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1A3639-F8EC-456F-902A-8FE2EDAAC413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A3F33-701C-43D8-8B02-0DDA290597C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,90 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Below are two maps: to the left, a map of a city with 28 neighborhoods and their respective populations; to the right, a map of the same 28 neighborhoods and the cost of establishing a test site in each neighborhood. Below are the assumptions for this problem:</a:t>
+            <a:t>Below are two maps: to the left, a map of a city with 28 neighborhoods and their respective populations; to the right, a map of the same 28 neighborhoods and the cost of establishing a test site in each neighborhood.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Please</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> note t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>he following assumptions for this problem:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -602,6 +685,17 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
@@ -612,30 +706,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The goal of this project is to create a linear model to determine in which neighborhoods the city should establish test sites such that the maximum number of people is tested. Please note that blue-colored cells are data given by the city, yellow-colored cells are decision variables ("DVs") for Solver to adjust, and the orange-colored cell is the objective being maximized in the model (i.e., the total population tested). </a:t>
+            <a:t>The goal of this project is to create a linear model to determine in which neighborhoods the city should establish test sites such that the number of people tested is maximized. Please note that blue-colored cells are data given by the city, yellow-colored cells are decision variables ("DVs") for Solver to adjust, and the orange-colored cell is the objective being maximized in the model (i.e., the total population tested). </a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
